--- a/data/extracted_data/raw/timeseries/Barbosa_etal_2019_Fig1.xlsx
+++ b/data/extracted_data/raw/timeseries/Barbosa_etal_2019_Fig1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/timeseries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B324366A-A4CE-DD45-8746-4C087612D637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549CA41C-E6D2-B543-979A-875E998FAEA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{80B0784C-6CFF-E44D-A606-AD56627BBE0D}"/>
+    <workbookView xWindow="8540" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{80B0784C-6CFF-E44D-A606-AD56627BBE0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -483,10 +483,10 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
@@ -496,7 +496,7 @@
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -536,7 +536,7 @@
         <v>0.190909090909091</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0.23863636363636301</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -576,7 +576,7 @@
         <v>0.27613636363636301</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -596,7 +596,7 @@
         <v>0.22159090909090901</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -616,7 +616,7 @@
         <v>0.24204545454545401</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -636,7 +636,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -716,7 +716,7 @@
         <v>1.0909090909091E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -736,7 +736,7 @@
         <v>1.0909090909091E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -756,7 +756,7 @@
         <v>2.1818181818181698E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -776,7 +776,7 @@
         <v>8.0000000000000099E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -796,7 +796,7 @@
         <v>7.6363636363636203E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -816,7 +816,7 @@
         <v>8.3636363636363606E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -896,7 +896,7 @@
         <v>7.9411764705882404E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0.27794117647058803</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -936,7 +936,7 @@
         <v>0.28235294117646997</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -956,7 +956,7 @@
         <v>0.189705882352941</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -996,7 +996,7 @@
         <v>0.57794117647058796</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="C29" s="1"/>
     </row>
   </sheetData>
